--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Base/Teams/Raiders/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Raiders/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
